--- a/public/files/niu_marketing.xlsx
+++ b/public/files/niu_marketing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899858EC-8824-4B04-94C0-5921A4A0E186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346A0173-8591-4992-A9B4-34CB9FD1D1C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>passport_seria</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>AC</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,7 +371,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,8 +406,8 @@
       <c r="C2">
         <v>1000000</v>
       </c>
-      <c r="D2" s="1">
-        <v>45194</v>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -417,8 +423,8 @@
       <c r="C3">
         <v>2000000</v>
       </c>
-      <c r="D3" s="1">
-        <v>45224</v>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
